--- a/Experiments/221024/output.xlsx
+++ b/Experiments/221024/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/221024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCE6B2-BFC2-0F49-BF87-54DFD6F4FCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918E7B34-6C39-E74C-8676-F46C81AB66C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16700" xr2:uid="{A7F76BAC-7E09-3646-BAE4-8F1ECD8E56CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>zero</t>
   </si>
@@ -52,15 +52,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Rep1</t>
-  </si>
-  <si>
-    <t>Rep2</t>
-  </si>
-  <si>
-    <t>Rep3</t>
-  </si>
-  <si>
     <t>874008*</t>
   </si>
   <si>
@@ -68,6 +59,24 @@
   </si>
   <si>
     <t>Temp2</t>
+  </si>
+  <si>
+    <t>Mal_Rep1</t>
+  </si>
+  <si>
+    <t>Mal_Rep2</t>
+  </si>
+  <si>
+    <t>Mal_Rep3</t>
+  </si>
+  <si>
+    <t>Pyr_Rep1</t>
+  </si>
+  <si>
+    <t>Pyr_Rep2</t>
+  </si>
+  <si>
+    <t>Pyr_Rep3</t>
   </si>
 </sst>
 </file>
@@ -419,35 +428,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3BE606-670D-CE4B-86C8-803746791EDF}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D9"/>
+      <selection activeCell="H2" sqref="H2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +488,7 @@
         <v>321159.09999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -492,8 +510,11 @@
       <c r="G3">
         <v>320211.90000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>15896.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -516,7 +537,7 @@
         <v>763417.59999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -538,8 +559,17 @@
       <c r="G5">
         <v>1555155</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>14792.27</v>
+      </c>
+      <c r="I5">
+        <v>16914.89</v>
+      </c>
+      <c r="J5">
+        <v>54648.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -561,8 +591,17 @@
       <c r="G6">
         <v>157320</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>50733</v>
+      </c>
+      <c r="I6">
+        <v>43704</v>
+      </c>
+      <c r="J6">
+        <v>92068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -584,8 +623,17 @@
       <c r="G7">
         <v>202914</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>133871</v>
+      </c>
+      <c r="I7">
+        <v>68946</v>
+      </c>
+      <c r="J7">
+        <v>82850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -599,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -620,6 +668,12 @@
       </c>
       <c r="F9">
         <v>174194</v>
+      </c>
+      <c r="H9">
+        <v>2173</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
